--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1613547.110624169</v>
+        <v>1611295.030912962</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283194</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>282.3939120001633</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292598</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>227.7172236952946</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>62.69769161018444</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>251.2285928046444</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>108.6227103352893</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>339.0189008308761</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677259</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>62.45439117602507</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>246.6900918996242</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43.88241745423462</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34574348918484</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>35.02467705292102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>158.2465685970616</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>22.65115569188744</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>35.88641949135547</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>60.64713141731118</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>166.1694208985026</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327287</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>82.47290449300681</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>148.1185786361442</v>
       </c>
     </row>
     <row r="29">
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>47.88058113793286</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>50.06209150957563</v>
       </c>
       <c r="E34" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>93.62264337260696</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>38.21875275158153</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.601998493311</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1605.601998493311</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.601998493311</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1219.813745895066</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>808.8278411054589</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>393.7553909504554</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,25 +4328,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4395,46 +4395,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720648</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U4" t="n">
-        <v>163.8377936138381</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="X4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>444.4359021818237</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.885912179585</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.908164563808</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2756.377687837644</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2756.377687837644</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4638,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4714,16 +4714,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925172</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.54063498476</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D8" t="n">
-        <v>1527.54063498476</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="E8" t="n">
-        <v>1141.752382386516</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>730.7664775969083</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>315.6940274419048</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989294</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989294</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>876.5613316219883</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>587.4584647476319</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,13 +5519,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5975,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565345</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667327</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523797</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327634</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>763.7541388327634</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>613.6374994204276</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>465.7244058380345</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>318.8344583401241</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806533</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630031</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>283.8927175774231</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6929,43 +6929,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647281</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>800.5007694647281</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>650.3841300523924</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>502.4710364699993</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>355.5810889720889</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>188.3849896869688</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820189</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,10 +7792,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.4862366927525</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>113.5907959652913</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>59.15888173022665</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>45.37941682721006</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>13.66255928343466</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>83.05123379926204</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671011978</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>70.46607471595061</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>117.643557154336</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>98.55338150863673</v>
       </c>
       <c r="E34" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>46.6720694736169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25594,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>213.9188905722465</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>901889.9708542901</v>
+        <v>901889.9708542902</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>901889.9708542902</v>
+        <v>901889.9708542899</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
@@ -26320,25 +26320,25 @@
         <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.2897985039</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26347,13 +26347,13 @@
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551194</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996598.2799812541</v>
+        <v>-996598.279981254</v>
       </c>
       <c r="C6" t="n">
         <v>332146.4657463382</v>
@@ -26528,40 +26528,40 @@
         <v>332146.4657463384</v>
       </c>
       <c r="E6" t="n">
-        <v>83283.60212537448</v>
+        <v>83248.86419993857</v>
       </c>
       <c r="F6" t="n">
-        <v>408696.0639327292</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="G6" t="n">
-        <v>408696.0639327294</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="H6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="I6" t="n">
-        <v>408696.0639327294</v>
+        <v>408661.3260072934</v>
       </c>
       <c r="J6" t="n">
-        <v>191164.8615354519</v>
+        <v>191130.1236100161</v>
       </c>
       <c r="K6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="L6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072939</v>
       </c>
       <c r="M6" t="n">
-        <v>323641.0359972174</v>
+        <v>323606.2980717819</v>
       </c>
       <c r="N6" t="n">
-        <v>408696.0639327296</v>
+        <v>408661.3260072937</v>
       </c>
       <c r="O6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072938</v>
       </c>
       <c r="P6" t="n">
-        <v>408696.0639327295</v>
+        <v>408661.3260072937</v>
       </c>
     </row>
   </sheetData>
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,10 +26808,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>12.2138523871572</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>158.520714960759</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>83.73627103638472</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>34.98324540096846</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5650514528865074</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>30.71219984759296</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351647</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>319.4759788962367</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.91767248769631</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>175.6665318219346</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29247,7 +29247,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,7 +32075,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>549.9198891312103</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>407.3236446867659</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
